--- a/16-Projects/gameon/sales-Jan-23.xlsx
+++ b/16-Projects/gameon/sales-Jan-23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rupak\data-science\16-Projects\gameon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C13917A-2AE9-48EE-B2ED-A3A8D86EDAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5DA59B-FF3C-41A5-B0C2-5C311B851438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="119">
   <si>
     <t>Year</t>
   </si>
@@ -311,6 +311,81 @@
   </si>
   <si>
     <t>YONEX Astrox Lite 21i Strunged with BG 65 (25lbs)&amp; 1Grip Black Strung Badminton Racquet G4 - 8.25 cm</t>
+  </si>
+  <si>
+    <t>OD426844964287446100</t>
+  </si>
+  <si>
+    <t>Gos-Apacs-43-2021</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALUR </t>
+  </si>
+  <si>
+    <t>apacs Z-Ziggler Strunged 24lbs with Full Cover &amp; 1Grip Grey Strung Badminton Racquet G4 - 8.25 cm</t>
+  </si>
+  <si>
+    <t>OD326961980191169100</t>
+  </si>
+  <si>
+    <t>Gos-Apacs-50-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satrampadu </t>
+  </si>
+  <si>
+    <t>apacs Finapi 232 Strunged (28lbs) with Full Cover &amp; 1Grip Black Strung Badminton Racquet G4 - 8.25 cm</t>
+  </si>
+  <si>
+    <t>OD326957567392607100</t>
+  </si>
+  <si>
+    <t>Yonex-2021-69</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiruvananthapuram </t>
+  </si>
+  <si>
+    <t>YONEX Voltric Lite 25i Strunged (25lbs) With Free 1Grip Black Strung Badminton Racquet G4 - 8.25 cm</t>
+  </si>
+  <si>
+    <t>OD326970237874007100</t>
+  </si>
+  <si>
+    <t>Assam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dibrugarh </t>
+  </si>
+  <si>
+    <t>OD326971583861218100</t>
+  </si>
+  <si>
+    <t>Gos-Apacs-59-2021</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>apacs Dual Power Speed Strunged (30lbs) with Full Cover &amp; 1Grip Black Strung Badminton Racquet G4 -3.25 Inches</t>
+  </si>
+  <si>
+    <t>OD326980491749125100</t>
+  </si>
+  <si>
+    <t>Gos-Apacs-67-2021</t>
+  </si>
+  <si>
+    <t>apacs Vanguard 11 Strunged (27lbs) with Full Cover &amp; 1Grip Black Strung Badminton Racquet G4 - 8.25 cm</t>
   </si>
 </sst>
 </file>
@@ -382,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -391,6 +466,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -672,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -912,7 +990,7 @@
       <c r="F5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>80</v>
       </c>
       <c r="H5" s="5" t="s">
@@ -960,7 +1038,7 @@
       <c r="F6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="6" t="s">
         <v>85</v>
       </c>
       <c r="H6" s="5" t="s">
@@ -1008,7 +1086,7 @@
       <c r="F7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>89</v>
       </c>
       <c r="H7" s="5" t="s">
@@ -1035,6 +1113,340 @@
       </c>
       <c r="P7" s="5" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="7">
+        <v>44916</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="7">
+        <v>44929</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="5">
+        <v>2397</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="7">
+        <v>44929</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="5">
+        <v>2749</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="7">
+        <v>44930</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="5">
+        <v>2399</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="7">
+        <v>44931</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="5">
+        <v>2899</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="7">
+        <v>44932</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="5">
+        <v>2899</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="7">
+        <v>44928</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="5">
+        <v>3144</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/16-Projects/gameon/sales-Jan-23.xlsx
+++ b/16-Projects/gameon/sales-Jan-23.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rupak\data-science\16-Projects\gameon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5DA59B-FF3C-41A5-B0C2-5C311B851438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A088AB-834F-4F21-AFA0-1D20E823E8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="172">
   <si>
     <t>Year</t>
   </si>
@@ -386,6 +386,165 @@
   </si>
   <si>
     <t>apacs Vanguard 11 Strunged (27lbs) with Full Cover &amp; 1Grip Black Strung Badminton Racquet G4 - 8.25 cm</t>
+  </si>
+  <si>
+    <t>OD326998184957195100</t>
+  </si>
+  <si>
+    <t>Yonex-2021-137</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>YONEX Astrox Lite 21i Graphite &amp; One Grip Free Black Strung Badminton Racquet G4 - 8.25 cm</t>
+  </si>
+  <si>
+    <t>OD427000870769283100</t>
+  </si>
+  <si>
+    <t>Gos-Apacs-52-2021</t>
+  </si>
+  <si>
+    <t>Punjab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mansa </t>
+  </si>
+  <si>
+    <t>apacs Finapi 232 Strunged (26lbs) with Full Cover &amp; 1Grip Black Strung Badminton Racquet G4 - 8.25 cm</t>
+  </si>
+  <si>
+    <t>OD426993021538908100</t>
+  </si>
+  <si>
+    <t>Mandya</t>
+  </si>
+  <si>
+    <t>OD326999797293440100</t>
+  </si>
+  <si>
+    <t>Gos-Apacs-86-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nagaon </t>
+  </si>
+  <si>
+    <t>apacs Z-Ziggler -with (White String) Worth 480 &amp; Full Cover and 1Grip Grey Unstrung Badminton Racquet G4 - 8.25 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANGALORE </t>
+  </si>
+  <si>
+    <t>OD327011590294891100</t>
+  </si>
+  <si>
+    <t>Gos-Apacs-62-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pune </t>
+  </si>
+  <si>
+    <t>apacs Dual Power Speed Strunged (27lbs) with Full Cover &amp; 1Grip Black Strung Badminton Racquet G4 -3.25 Inches</t>
+  </si>
+  <si>
+    <t>OD327012113285369100</t>
+  </si>
+  <si>
+    <t>Gos-Apacs-49-2021</t>
+  </si>
+  <si>
+    <t>YSR District</t>
+  </si>
+  <si>
+    <t>apacs Finapi 232 Strunged (29lbs) with Full Cover &amp; 1Grip Black Strung Badminton Racquet G4 - 8.25 cm</t>
+  </si>
+  <si>
+    <t>OD327012249268060100</t>
+  </si>
+  <si>
+    <t>Jammu &amp; Kashmir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Udhampur </t>
+  </si>
+  <si>
+    <t>OD427013066108969100</t>
+  </si>
+  <si>
+    <t>Gos-Apacs-81-2021</t>
+  </si>
+  <si>
+    <t>Kalladka</t>
+  </si>
+  <si>
+    <t>apacs Z-Ziggler Strunged (32lbs) with Full Cover &amp; 1Grip Black Strung Badminton Racquet G4 - 8.25 cm</t>
+  </si>
+  <si>
+    <t>OD427026120468640100</t>
+  </si>
+  <si>
+    <t>Gos-Apacs-80-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saran </t>
+  </si>
+  <si>
+    <t>apacs Z-Ziggler Strunged (31lbs) with Full Cover &amp; 1Grip Black Strung Badminton Racquet G4 - 8.25 cm</t>
+  </si>
+  <si>
+    <t>OD426905499800429100</t>
+  </si>
+  <si>
+    <t>GOS-2021-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silchar </t>
+  </si>
+  <si>
+    <t>apacs Z-Ziggler Grey Custom Strung Badminton Racquet G4 -3.25 Inches</t>
+  </si>
+  <si>
+    <t>OD327020149969189100</t>
+  </si>
+  <si>
+    <t>Gos-Apacs-82-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hojai </t>
+  </si>
+  <si>
+    <t>apacs Z-Ziggler Strunged (33lbs) with Full Cover &amp; 1Grip Black Strung Badminton Racquet G4 - 8.25 cm</t>
+  </si>
+  <si>
+    <t>OD327045464762900100</t>
+  </si>
+  <si>
+    <t>Gos-Apacs-2021-02</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAREILLY </t>
+  </si>
+  <si>
+    <t>apacs Dual Power Speed &amp; Free Full Cover and 1Grip Black Unstrung Badminton Racquet G4 - 8.25 cm</t>
+  </si>
+  <si>
+    <t>OD327065068263947100</t>
+  </si>
+  <si>
+    <t>Gos-Apacs-61-2021</t>
+  </si>
+  <si>
+    <t>Goa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuncolim </t>
+  </si>
+  <si>
+    <t>apacs Dual Power Speed Strunged (28lbs) with Full Cover &amp; 1Grip Black Strung Badminton Racquet G4 -3.25 Inches</t>
   </si>
 </sst>
 </file>
@@ -461,14 +620,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -750,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -778,675 +937,1347 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="A2" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="5">
         <v>44928</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="5">
+      <c r="J2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="3">
         <v>3144</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="6" t="s">
+      <c r="L2" s="3"/>
+      <c r="M2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="A3" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="5">
         <v>44927</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="5">
+      <c r="J3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="3">
         <v>2446</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="6" t="s">
+      <c r="L3" s="3"/>
+      <c r="M3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="A4" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5">
         <v>44927</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="5">
+      <c r="J4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="3">
         <v>2745</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="6" t="s">
+      <c r="L4" s="3"/>
+      <c r="M4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="A5" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="5">
         <v>44928</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="5">
+      <c r="J5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="3">
         <v>2409</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="6" t="s">
+      <c r="L5" s="3"/>
+      <c r="M5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="A6" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="5">
         <v>44928</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="5">
+      <c r="J6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="3">
         <v>2939</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="6" t="s">
+      <c r="L6" s="3"/>
+      <c r="M6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="A7" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="5">
         <v>44928</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="5">
+      <c r="J7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="3">
         <v>2799</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="6" t="s">
+      <c r="L7" s="3"/>
+      <c r="M7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="P7" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>2022</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>44916</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="6" t="s">
+      <c r="J8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="O8" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="P8" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="A9" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="5">
         <v>44929</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="5">
+      <c r="J9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="3">
         <v>2397</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="6" t="s">
+      <c r="L9" s="3"/>
+      <c r="M9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="P9" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="7">
+      <c r="A10" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="5">
         <v>44929</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="5">
+      <c r="J10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="3">
         <v>2749</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="6" t="s">
+      <c r="L10" s="3"/>
+      <c r="M10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P10" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="7">
+      <c r="A11" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="5">
         <v>44930</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="5">
+      <c r="J11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="3">
         <v>2399</v>
       </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="6" t="s">
+      <c r="L11" s="3"/>
+      <c r="M11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P11" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="7">
+      <c r="A12" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="5">
         <v>44931</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="5">
+      <c r="J12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="3">
         <v>2899</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="6" t="s">
+      <c r="L12" s="3"/>
+      <c r="M12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="P12" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="A13" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="5">
         <v>44932</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="5">
+      <c r="J13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="3">
         <v>2899</v>
       </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="6" t="s">
+      <c r="L13" s="3"/>
+      <c r="M13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="P13" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="7">
+      <c r="A14" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="5">
         <v>44928</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="5">
+      <c r="J14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="3">
         <v>3144</v>
       </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="6" t="s">
+      <c r="L14" s="3"/>
+      <c r="M14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="O14" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="P14" s="5" t="s">
+      <c r="P14" s="3" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="5">
+        <v>44934</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="3">
+        <v>2399</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="5">
+        <v>44934</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="3">
+        <v>2409</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="5">
+        <v>44933</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="3">
+        <v>2349</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="5">
+        <v>44934</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="3">
+        <v>3059</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="5">
+        <v>44928</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="3">
+        <v>2939</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="5">
+        <v>44935</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="3">
+        <v>2899</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="5">
+        <v>44935</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="3">
+        <v>2397</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="5">
+        <v>44935</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="3">
+        <v>2409</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="5">
+        <v>44935</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="3">
+        <v>2999</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="5">
+        <v>44937</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="3">
+        <v>3059</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="5">
+        <v>44923</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="3">
+        <v>3064</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="5">
+        <v>44936</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="3">
+        <v>2999</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="M26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="5">
+        <v>44939</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="3">
+        <v>2409</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="5">
+        <v>44941</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="3">
+        <v>2899</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="M28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
